--- a/Quest_With_SQR_MATLAB/Divided Program/Functions/input.xlsx
+++ b/Quest_With_SQR_MATLAB/Divided Program/Functions/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91808\Documents\GitHub\QUEST-ALGORITHM\Quest_With_SQR_MATLAB\Divided Program\Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AD4A06-722F-4A66-B0EC-EEBF5E26FD47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0C2B86-A114-45A3-A3F1-D07BC34E55A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,8 +58,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC9D1D9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -75,12 +82,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -173,21 +174,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -196,34 +194,40 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -509,14 +513,14 @@
   <dimension ref="A1:I125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:H5"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9.109375" style="4" customWidth="1"/>
     <col min="3" max="8" width="8.88671875" style="4"/>
-    <col min="9" max="9" width="15.33203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="4" customWidth="1"/>
     <col min="10" max="10" width="10.109375" style="4" customWidth="1"/>
     <col min="11" max="16384" width="8.88671875" style="4"/>
   </cols>
@@ -528,24 +532,12 @@
       <c r="B1" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="12">
-        <v>0.78964769616561803</v>
-      </c>
-      <c r="D1" s="12">
-        <v>0.59903385418034905</v>
-      </c>
-      <c r="E1" s="12">
-        <v>-0.132721352789096</v>
-      </c>
-      <c r="F1" s="12">
-        <v>-0.90557248670600998</v>
-      </c>
-      <c r="G1" s="12">
-        <v>0.41039267124817003</v>
-      </c>
-      <c r="H1" s="12">
-        <v>-0.107314149611708</v>
-      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -555,24 +547,12 @@
       <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="12">
-        <v>0.14148841173899299</v>
-      </c>
-      <c r="D2" s="12">
-        <v>-0.97105298141183405</v>
-      </c>
-      <c r="E2" s="12">
-        <v>-0.19245034849218701</v>
-      </c>
-      <c r="F2" s="12">
-        <v>0.37611046744750698</v>
-      </c>
-      <c r="G2" s="12">
-        <v>-0.87624924527963899</v>
-      </c>
-      <c r="H2" s="12">
-        <v>-0.30121118243398698</v>
-      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -582,73 +562,37 @@
       <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="12">
-        <v>-0.63979246759036501</v>
-      </c>
-      <c r="D3" s="12">
-        <v>0.50016921919483603</v>
-      </c>
-      <c r="E3" s="12">
-        <v>0.58352065137804698</v>
-      </c>
-      <c r="F3" s="12">
-        <v>-0.75920052662587201</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0.25386897565160299</v>
-      </c>
-      <c r="H3" s="12">
-        <v>0.59930384912213297</v>
-      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="12">
-        <v>-0.72744639937446098</v>
-      </c>
-      <c r="D4" s="12">
-        <v>-0.62820993581450502</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0.27599639957990002</v>
-      </c>
-      <c r="F4" s="12">
-        <v>-0.56408131053370703</v>
-      </c>
-      <c r="G4" s="12">
-        <v>-0.81191082855001595</v>
-      </c>
-      <c r="H4" s="12">
-        <v>0.15037646620998299</v>
-      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="C5" s="12">
-        <v>0.55212933566026101</v>
-      </c>
-      <c r="D5" s="12">
-        <v>-0.70200676877097301</v>
-      </c>
-      <c r="E5" s="12">
-        <v>-0.44982184618256998</v>
-      </c>
-      <c r="F5" s="12">
-        <v>0.71826410005476304</v>
-      </c>
-      <c r="G5" s="12">
-        <v>-0.48668463256091599</v>
-      </c>
-      <c r="H5" s="12">
-        <v>-0.497227061815391</v>
-      </c>
-      <c r="I5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C7" s="12">
@@ -2481,7 +2425,7 @@
       </c>
       <c r="I101" s="14"/>
     </row>
-    <row r="102" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C102" s="15"/>
       <c r="D102" s="15"/>
       <c r="E102" s="15"/>
@@ -2490,13 +2434,13 @@
       <c r="H102" s="15"/>
     </row>
     <row r="103" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C103" s="12">
-        <v>0.78964769616561803</v>
-      </c>
-      <c r="D103" s="12">
+      <c r="C103" s="17">
+        <v>-0.78964769616561803</v>
+      </c>
+      <c r="D103" s="17">
         <v>0.59903385418034905</v>
       </c>
-      <c r="E103" s="12">
+      <c r="E103" s="17">
         <v>-0.132721352789096</v>
       </c>
       <c r="F103" s="12">
@@ -2508,7 +2452,9 @@
       <c r="H103" s="12">
         <v>-0.107314149611708</v>
       </c>
-      <c r="I103" s="13"/>
+      <c r="I103" s="3">
+        <v>-6.4996872653581464E-2</v>
+      </c>
     </row>
     <row r="104" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C104" s="12">
@@ -2529,7 +2475,9 @@
       <c r="H104" s="12">
         <v>-0.30121118243398698</v>
       </c>
-      <c r="I104" s="13"/>
+      <c r="I104" s="7">
+        <v>2.3858602032224313E-2</v>
+      </c>
     </row>
     <row r="105" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C105" s="12">
@@ -2550,9 +2498,11 @@
       <c r="H105" s="12">
         <v>0.59930384912213297</v>
       </c>
-      <c r="I105" s="13"/>
-    </row>
-    <row r="106" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I105" s="7">
+        <v>-0.11941628980163718</v>
+      </c>
+    </row>
+    <row r="106" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C106" s="12">
         <v>-0.72744639937446098</v>
       </c>
@@ -2571,9 +2521,11 @@
       <c r="H106" s="12">
         <v>0.15037646620998299</v>
       </c>
-      <c r="I106" s="13"/>
-    </row>
-    <row r="107" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I106" s="9">
+        <v>0.99042714188593084</v>
+      </c>
+    </row>
+    <row r="107" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C107" s="12">
         <v>0.55212933566026101</v>
       </c>
@@ -2592,7 +2544,7 @@
       <c r="H107" s="12">
         <v>-0.497227061815391</v>
       </c>
-      <c r="I107" s="16"/>
+      <c r="I107" s="11"/>
     </row>
     <row r="108" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C108" s="15"/>
@@ -2845,22 +2797,22 @@
       <c r="H120" s="15"/>
     </row>
     <row r="121" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C121" s="17">
+      <c r="C121" s="16">
         <v>-0.122211934700673</v>
       </c>
-      <c r="D121" s="17">
+      <c r="D121" s="16">
         <v>-0.98494785956892705</v>
       </c>
-      <c r="E121" s="17">
+      <c r="E121" s="16">
         <v>0.122237297693085</v>
       </c>
-      <c r="F121" s="17">
+      <c r="F121" s="16">
         <v>0.37114891190344701</v>
       </c>
-      <c r="G121" s="17">
+      <c r="G121" s="16">
         <v>-0.90592166925288897</v>
       </c>
-      <c r="H121" s="17">
+      <c r="H121" s="16">
         <v>0.203848998945166</v>
       </c>
       <c r="I121" s="13">
@@ -2868,22 +2820,22 @@
       </c>
     </row>
     <row r="122" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C122" s="17">
+      <c r="C122" s="16">
         <v>0.54416040785388797</v>
       </c>
-      <c r="D122" s="17">
+      <c r="D122" s="16">
         <v>-0.4617874232543</v>
       </c>
-      <c r="E122" s="17">
+      <c r="E122" s="16">
         <v>0.70045829729430997</v>
       </c>
-      <c r="F122" s="17">
+      <c r="F122" s="16">
         <v>0.26901890279646301</v>
       </c>
-      <c r="G122" s="17">
+      <c r="G122" s="16">
         <v>-0.20100975844593</v>
       </c>
-      <c r="H122" s="17">
+      <c r="H122" s="16">
         <v>0.94192563769529902</v>
       </c>
       <c r="I122" s="13">
@@ -2891,22 +2843,22 @@
       </c>
     </row>
     <row r="123" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C123" s="17">
+      <c r="C123" s="16">
         <v>-8.4970838517027802E-3</v>
       </c>
-      <c r="D123" s="17">
+      <c r="D123" s="16">
         <v>0.72285129846312302</v>
       </c>
-      <c r="E123" s="17">
+      <c r="E123" s="16">
         <v>0.69095137301853204</v>
       </c>
-      <c r="F123" s="17">
+      <c r="F123" s="16">
         <v>-0.72906232938137105</v>
       </c>
-      <c r="G123" s="17">
+      <c r="G123" s="16">
         <v>0.49839841098473903</v>
       </c>
-      <c r="H123" s="17">
+      <c r="H123" s="16">
         <v>0.46911314605849103</v>
       </c>
       <c r="I123" s="13">
@@ -2914,22 +2866,22 @@
       </c>
     </row>
     <row r="124" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C124" s="17">
+      <c r="C124" s="16">
         <v>-0.71798039488542498</v>
       </c>
-      <c r="D124" s="17">
+      <c r="D124" s="16">
         <v>0.68085573411851696</v>
       </c>
-      <c r="E124" s="17">
+      <c r="E124" s="16">
         <v>-0.14470529319310799</v>
       </c>
-      <c r="F124" s="17">
+      <c r="F124" s="16">
         <v>-0.78076034129501004</v>
       </c>
-      <c r="G124" s="17">
+      <c r="G124" s="16">
         <v>0.21067974098897399</v>
       </c>
-      <c r="H124" s="17">
+      <c r="H124" s="16">
         <v>-0.58824088280033604</v>
       </c>
       <c r="I124" s="13">
@@ -2937,22 +2889,22 @@
       </c>
     </row>
     <row r="125" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C125" s="17">
+      <c r="C125" s="16">
         <v>-0.933629961259693</v>
       </c>
-      <c r="D125" s="17">
+      <c r="D125" s="16">
         <v>-0.231941838490729</v>
       </c>
-      <c r="E125" s="17">
+      <c r="E125" s="16">
         <v>0.27301662769099699</v>
       </c>
-      <c r="F125" s="17">
+      <c r="F125" s="16">
         <v>-0.65915971426818598</v>
       </c>
-      <c r="G125" s="17">
+      <c r="G125" s="16">
         <v>-0.727692972861812</v>
       </c>
-      <c r="H125" s="17">
+      <c r="H125" s="16">
         <v>-0.18966129898695999</v>
       </c>
       <c r="I125" s="14"/>

--- a/Quest_With_SQR_MATLAB/Divided Program/Functions/input.xlsx
+++ b/Quest_With_SQR_MATLAB/Divided Program/Functions/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91808\Documents\GitHub\QUEST-ALGORITHM\Quest_With_SQR_MATLAB\Divided Program\Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0C2B86-A114-45A3-A3F1-D07BC34E55A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B247BA-76A8-486F-B72A-0DFAEB30C020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,7 +110,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -170,11 +170,18 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -206,9 +213,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -228,6 +232,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -512,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="99" workbookViewId="0">
+      <selection activeCell="L106" sqref="L106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,27 +548,27 @@
       <c r="B1" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -562,2352 +578,2352 @@
       <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="18"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="17"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>0.37114891190344701</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>-0.90592166925288897</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>0.203848998945166</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>-0.122211934700673</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <v>-0.98494785956892705</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <v>0.122237297693085</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="12">
         <v>-4.1895292141403565E-3</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>0.26901890279646301</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>-0.20100975844593</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>0.94192563769529902</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>0.54416040785388797</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <v>-0.4617874232543</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <v>0.70045829729430997</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="12">
         <v>-0.26959287852966413</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>-0.72906232938137105</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>0.49839841098473903</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>0.46911314605849103</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>-8.4970838517027802E-3</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>0.72285129846312302</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <v>0.69095137301853204</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="12">
         <v>0.28637863747385861</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>-0.78076034129501004</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>0.21067974098897399</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>-0.58824088280033604</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>-0.71798039488542498</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <v>0.68085573411851696</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <v>-0.14470529319310799</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="12">
         <v>0.91939621692155649</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>-0.65915971426818598</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>-0.727692972861812</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>-0.18966129898695999</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>-0.933629961259693</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <v>-0.231941838490729</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <v>0.27301662769099699</v>
       </c>
-      <c r="I11" s="14"/>
+      <c r="I11" s="13"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>-0.19508573474720101</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>-0.95775150391198705</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>-0.21131401480372999</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>-0.60343240016010602</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <v>-0.36891407522373798</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="11">
         <v>-0.70694536107030803</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="12">
         <v>-0.32293740606478893</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>-0.251673458555777</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <v>0.59798327046750399</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <v>0.76097074746639304</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>-7.6231474213646094E-2</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="11">
         <v>7.4575298740506099E-2</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="11">
         <v>0.99429738366193998</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="12">
         <v>2.2028136084337544E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>-0.597519756822254</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>0.79195418668256001</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <v>-0.12561332096174899</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="11">
         <v>-6.09166632782858E-2</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="11">
         <v>0.88567144731215297</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="11">
         <v>0.46029908489050603</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="12">
         <v>0.29223616505571481</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>0.69213422362475696</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <v>-0.71664212908031499</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <v>-8.5873600801340405E-2</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <v>0.22612143315253899</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="11">
         <v>-0.76984319440369897</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="11">
         <v>-0.59683377375895097</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="12">
         <v>0.89990233737796488</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>-0.76529651780435604</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <v>0.59145550796164803</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>-0.253971695151953</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <v>-0.273160656835224</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="11">
         <v>0.92482282303115904</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="11">
         <v>0.26473760888477299</v>
       </c>
-      <c r="I17" s="14"/>
+      <c r="I17" s="13"/>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>-0.98500433293132905</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <v>0.17236117293387701</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="11">
         <v>7.6216908469107303E-3</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="11">
         <v>-0.48423564100273297</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="11">
         <v>-0.25766323265069102</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="11">
         <v>0.836137251007673</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="12">
         <v>-0.6656628283965127</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>-0.48314412705502202</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <v>0.55732649560477399</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="11">
         <v>-0.67524731009396999</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="11">
         <v>-1.01693164304811E-2</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="11">
         <v>0.54335001271694405</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="11">
         <v>0.83944466683863905</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="12">
         <v>-0.38147929901125843</v>
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <v>0.53657278759973304</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="11">
         <v>-0.65091401870806997</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="11">
         <v>0.53702940688267897</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="11">
         <v>-5.3708441397891001E-2</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="11">
         <v>-0.39890288629672299</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="11">
         <v>-0.91541896999502503</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="12">
         <v>0.20433858237813549</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C22" s="12">
+      <c r="C22" s="11">
         <v>0.50858344290804902</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="11">
         <v>0.20688271123365001</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="11">
         <v>-0.83578850518083203</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="11">
         <v>0.31425105179568802</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="11">
         <v>0.94497731986109201</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="11">
         <v>-9.0907323101333898E-2</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="12">
         <v>0.60795747143096102</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C23" s="12">
+      <c r="C23" s="11">
         <v>0.87615651596307398</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="11">
         <v>9.4483659075284901E-2</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="11">
         <v>0.47267599653800202</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="11">
         <v>0.71010475878588597</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="11">
         <v>-0.22612127518861</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="11">
         <v>-0.66679862061698603</v>
       </c>
-      <c r="I23" s="14"/>
+      <c r="I23" s="13"/>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C25" s="12">
+      <c r="C25" s="11">
         <v>-0.11121168103434501</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="11">
         <v>0.359094739507202</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="11">
         <v>0.92665146093866901</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="11">
         <v>0.95288782362525404</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="11">
         <v>-0.195596880889189</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="11">
         <v>-0.231833249930088</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="12">
         <v>0.60977110862365214</v>
       </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C26" s="12">
+      <c r="C26" s="11">
         <v>-0.794945734666055</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="11">
         <v>-8.8277862656909803E-2</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="11">
         <v>-0.60022353994238997</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="11">
         <v>-0.52460758179183098</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="11">
         <v>0.64983837045870296</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="11">
         <v>-0.54999725218050399</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="12">
         <v>-0.2702485429716957</v>
       </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C27" s="12">
+      <c r="C27" s="11">
         <v>-0.65807395829222404</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="11">
         <v>0.66895622443936198</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="11">
         <v>-0.34559547913917799</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="11">
         <v>-0.239574932030339</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="11">
         <v>1.8383564687621701E-2</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="11">
         <v>-0.97070381501879099</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="12">
         <v>0.68948837162805432</v>
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C28" s="12">
+      <c r="C28" s="11">
         <v>-0.65353323874257097</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="11">
         <v>-0.70716846249153997</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="11">
         <v>-0.26982785533743198</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="11">
         <v>-0.24709511948035001</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="11">
         <v>0.96859946107984496</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="11">
         <v>2.7551514020581501E-2</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I28" s="12">
         <v>0.28240167403762284</v>
       </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C29" s="12">
+      <c r="C29" s="11">
         <v>-7.8033248435550207E-2</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="11">
         <v>-0.98696828868160702</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="11">
         <v>-0.14072813960077399</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="11">
         <v>-0.19132092426418301</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="11">
         <v>0.74546448942224897</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="11">
         <v>0.63849745414459202</v>
       </c>
-      <c r="I29" s="14"/>
+      <c r="I29" s="13"/>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C31" s="12">
+      <c r="C31" s="11">
         <v>0.76712927392688701</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="11">
         <v>-0.53653895243336902</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="11">
         <v>0.35162285137076998</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="11">
         <v>0.55457090291351896</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="11">
         <v>0.83189927906295003</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="11">
         <v>1.9867137091884798E-2</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I31" s="12">
         <v>0.73948833934646052</v>
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C32" s="12">
+      <c r="C32" s="11">
         <v>-0.43862833928342598</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="11">
         <v>-0.40361184474959</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="11">
         <v>0.80293378229795298</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="11">
         <v>-0.62705773499193995</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="11">
         <v>0.601407897250543</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="11">
         <v>0.495082960837331</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I32" s="12">
         <v>2.4609887307925793E-2</v>
       </c>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C33" s="12">
+      <c r="C33" s="11">
         <v>-0.65902976534035296</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="11">
         <v>-0.67707298757873902</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="11">
         <v>-0.32749341655465602</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="11">
         <v>-2.83776168800376E-2</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="11">
         <v>-0.31321198462472899</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="11">
         <v>0.94925916563794599</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I33" s="12">
         <v>-0.37228394512613583</v>
       </c>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C34" s="12">
+      <c r="C34" s="11">
         <v>-0.34070414714298403</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="11">
         <v>-0.70478576432214801</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="11">
         <v>-0.62225212778134997</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="11">
         <v>0.382301469408246</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="11">
         <v>-0.39740854287934102</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="11">
         <v>0.83421342385196395</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I34" s="12">
         <v>0.56031777913843273</v>
       </c>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C35" s="12">
+      <c r="C35" s="11">
         <v>-0.21259021425031199</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="11">
         <v>0.588463932151434</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="11">
         <v>-0.78007409991735899</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="11">
         <v>7.3531587961236794E-2</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="11">
         <v>-0.94682792745798905</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="11">
         <v>-0.31322512887300002</v>
       </c>
-      <c r="I35" s="14"/>
+      <c r="I35" s="13"/>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C37" s="12">
+      <c r="C37" s="11">
         <v>-0.49382769307725299</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="11">
         <v>0.72525192077365397</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="11">
         <v>0.47973311430849103</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37" s="11">
         <v>0.61041998497979999</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="11">
         <v>-7.9640027554118295E-2</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="11">
         <v>0.78806402528502695</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I37" s="12">
         <v>-0.42814739568824572</v>
       </c>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C38" s="12">
+      <c r="C38" s="11">
         <v>-0.59380318598167903</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="11">
         <v>-0.59951946558718905</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="11">
         <v>0.53663226393877805</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="11">
         <v>-0.463564446605919</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="11">
         <v>-0.77601251979624897</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H38" s="11">
         <v>0.42768279479355298</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I38" s="12">
         <v>-0.48344082747807426</v>
       </c>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C39" s="12">
+      <c r="C39" s="11">
         <v>0.78305246082931401</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="11">
         <v>0.61104322894540697</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="11">
         <v>0.115995758323856</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F39" s="11">
         <v>0.84442791980402199</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="11">
         <v>0.216601661771299</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H39" s="11">
         <v>-0.48992367606940901</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I39" s="12">
         <v>0.27134203885016467</v>
       </c>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C40" s="12">
+      <c r="C40" s="11">
         <v>0.70987560141914896</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="11">
         <v>-0.342525990253086</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="11">
         <v>-0.615428774523051</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40" s="11">
         <v>-0.28261279912364301</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="11">
         <v>0.38998113422731301</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H40" s="11">
         <v>-0.87638160678911903</v>
       </c>
-      <c r="I40" s="13">
+      <c r="I40" s="12">
         <v>0.71368639600690387</v>
       </c>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C41" s="12">
+      <c r="C41" s="11">
         <v>0.28265448069788401</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="11">
         <v>0.65089780335995595</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="11">
         <v>0.70458391560025901</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F41" s="11">
         <v>0.95294823337841805</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G41" s="11">
         <v>-0.29148630473762699</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H41" s="11">
         <v>8.3218980114852598E-2</v>
       </c>
-      <c r="I41" s="14"/>
+      <c r="I41" s="13"/>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C43" s="12">
+      <c r="C43" s="11">
         <v>-0.29055258435231202</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="11">
         <v>0.36839402412084599</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="11">
         <v>-0.88309967654746802</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F43" s="11">
         <v>-0.22474421552394899</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G43" s="11">
         <v>0.92752116785276995</v>
       </c>
-      <c r="H43" s="12">
+      <c r="H43" s="11">
         <v>0.29865451741696403</v>
       </c>
-      <c r="I43" s="13">
+      <c r="I43" s="12">
         <v>-0.6813038891290788</v>
       </c>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C44" s="12">
+      <c r="C44" s="11">
         <v>-0.80880702334224697</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="11">
         <v>-4.2792196393449201E-2</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="11">
         <v>0.58651515489378403</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F44" s="11">
         <v>-0.55054522656567295</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G44" s="11">
         <v>-0.194017243883156</v>
       </c>
-      <c r="H44" s="12">
+      <c r="H44" s="11">
         <v>-0.81194658850304702</v>
       </c>
-      <c r="I44" s="13">
+      <c r="I44" s="12">
         <v>0.44866185714844303</v>
       </c>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C45" s="12">
+      <c r="C45" s="11">
         <v>-0.67270280749804101</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="11">
         <v>-0.35461975126518902</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="11">
         <v>0.64939646195284195</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F45" s="11">
         <v>-0.24309244972482999</v>
       </c>
-      <c r="G45" s="12">
+      <c r="G45" s="11">
         <v>-0.31153028572982799</v>
       </c>
-      <c r="H45" s="12">
+      <c r="H45" s="11">
         <v>-0.91861577493524105</v>
       </c>
-      <c r="I45" s="13">
+      <c r="I45" s="12">
         <v>-0.17433703736452846</v>
       </c>
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C46" s="12">
+      <c r="C46" s="11">
         <v>0.88078884296780402</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="11">
         <v>0.32048701041432298</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="11">
         <v>0.34856719618909499</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46" s="11">
         <v>0.125403258142437</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="11">
         <v>-0.68208528067211105</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H46" s="11">
         <v>0.720439929999517</v>
       </c>
-      <c r="I46" s="13">
+      <c r="I46" s="12">
         <v>0.55148358633839778</v>
       </c>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C47" s="12">
+      <c r="C47" s="11">
         <v>0.94495847636419406</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="11">
         <v>0.13105648527331401</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E47" s="11">
         <v>0.299796056704</v>
       </c>
-      <c r="F47" s="12">
+      <c r="F47" s="11">
         <v>0.32462057686749901</v>
       </c>
-      <c r="G47" s="12">
+      <c r="G47" s="11">
         <v>-0.66675521142803595</v>
       </c>
-      <c r="H47" s="12">
+      <c r="H47" s="11">
         <v>0.67086434478795098</v>
       </c>
-      <c r="I47" s="14"/>
+      <c r="I47" s="13"/>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C49" s="12">
+      <c r="C49" s="11">
         <v>-0.15294331027527699</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="11">
         <v>0.66004982686596103</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E49" s="11">
         <v>0.73548798079659605</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F49" s="11">
         <v>0.81050558714101295</v>
       </c>
-      <c r="G49" s="12">
+      <c r="G49" s="11">
         <v>0.15413240451138299</v>
       </c>
-      <c r="H49" s="12">
+      <c r="H49" s="11">
         <v>-0.56508751100403998</v>
       </c>
-      <c r="I49" s="13">
+      <c r="I49" s="12">
         <v>0.57212169830934179</v>
       </c>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C50" s="12">
+      <c r="C50" s="11">
         <v>0.75802950400091695</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D50" s="11">
         <v>-0.119223371400247</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E50" s="11">
         <v>-0.64123089349787499</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F50" s="11">
         <v>-0.49178197524642697</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G50" s="11">
         <v>-0.83529920325305795</v>
       </c>
-      <c r="H50" s="12">
+      <c r="H50" s="11">
         <v>0.24581645564837601</v>
       </c>
-      <c r="I50" s="13">
+      <c r="I50" s="12">
         <v>-0.31956015561641299</v>
       </c>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C51" s="12">
+      <c r="C51" s="11">
         <v>-0.27118691078208701</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="11">
         <v>0.96171628993084002</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E51" s="11">
         <v>-3.9489708812920903E-2</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F51" s="11">
         <v>0.105550802791273</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G51" s="11">
         <v>-1.7313537621816799E-3</v>
       </c>
-      <c r="H51" s="12">
+      <c r="H51" s="11">
         <v>-0.99441240461101899</v>
       </c>
-      <c r="I51" s="13">
+      <c r="I51" s="12">
         <v>0.5481274052410261</v>
       </c>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C52" s="12">
+      <c r="C52" s="11">
         <v>0.655131087444211</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D52" s="11">
         <v>-0.75291556371980295</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E52" s="11">
         <v>-6.2621179904701604E-2</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F52" s="11">
         <v>-8.6074920101326793E-2</v>
       </c>
-      <c r="G52" s="12">
+      <c r="G52" s="11">
         <v>-0.43572110320342999</v>
       </c>
-      <c r="H52" s="12">
+      <c r="H52" s="11">
         <v>0.89595659959215401</v>
       </c>
-      <c r="I52" s="13">
+      <c r="I52" s="12">
         <v>0.51972532831274298</v>
       </c>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C53" s="12">
+      <c r="C53" s="11">
         <v>0.66833585389146899</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D53" s="11">
         <v>-0.52378082329587095</v>
       </c>
-      <c r="E53" s="12">
+      <c r="E53" s="11">
         <v>0.52818636441190003</v>
       </c>
-      <c r="F53" s="12">
+      <c r="F53" s="11">
         <v>0.53006007761269403</v>
       </c>
-      <c r="G53" s="12">
+      <c r="G53" s="11">
         <v>-0.36224722412226901</v>
       </c>
-      <c r="H53" s="12">
+      <c r="H53" s="11">
         <v>0.76668980868206205</v>
       </c>
-      <c r="I53" s="14"/>
+      <c r="I53" s="13"/>
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C55" s="12">
+      <c r="C55" s="11">
         <v>0.62548492666144495</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="11">
         <v>-0.66872795372833005</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E55" s="11">
         <v>0.40195961292354598</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F55" s="11">
         <v>0.40112305590291802</v>
       </c>
-      <c r="G55" s="12">
+      <c r="G55" s="11">
         <v>-0.91601545726417899</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H55" s="11">
         <v>3.9970084065163803E-3</v>
       </c>
-      <c r="I55" s="13">
+      <c r="I55" s="12">
         <v>4.4868685033595576E-2</v>
       </c>
     </row>
     <row r="56" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C56" s="12">
+      <c r="C56" s="11">
         <v>0.73174224123949205</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D56" s="11">
         <v>0.21319414724837901</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E56" s="11">
         <v>0.64738052794692602</v>
       </c>
-      <c r="F56" s="12">
+      <c r="F56" s="11">
         <v>0.96790862761053598</v>
       </c>
-      <c r="G56" s="12">
+      <c r="G56" s="11">
         <v>-0.204883936134861</v>
       </c>
-      <c r="H56" s="12">
+      <c r="H56" s="11">
         <v>-0.14551790718318999</v>
       </c>
-      <c r="I56" s="13">
+      <c r="I56" s="12">
         <v>-0.41081669873128135</v>
       </c>
     </row>
     <row r="57" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C57" s="12">
+      <c r="C57" s="11">
         <v>-0.54695603729314801</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="11">
         <v>-0.77019251123823695</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E57" s="11">
         <v>0.328089300192974</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F57" s="11">
         <v>-0.34393128804274398</v>
       </c>
-      <c r="G57" s="12">
+      <c r="G57" s="11">
         <v>-0.47984760174535301</v>
       </c>
-      <c r="H57" s="12">
+      <c r="H57" s="11">
         <v>0.80712920167993696</v>
       </c>
-      <c r="I57" s="13">
+      <c r="I57" s="12">
         <v>0.22997892939854919</v>
       </c>
     </row>
     <row r="58" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C58" s="12">
+      <c r="C58" s="11">
         <v>-0.81031358379808904</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D58" s="11">
         <v>0.344303041009422</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E58" s="11">
         <v>0.47418067428350702</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F58" s="11">
         <v>2.88195551832423E-2</v>
       </c>
-      <c r="G58" s="12">
+      <c r="G58" s="11">
         <v>0.61265303608703003</v>
       </c>
-      <c r="H58" s="12">
+      <c r="H58" s="11">
         <v>0.78982636738234002</v>
       </c>
-      <c r="I58" s="13">
+      <c r="I58" s="12">
         <v>0.88109371418685356</v>
       </c>
     </row>
     <row r="59" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C59" s="12">
+      <c r="C59" s="11">
         <v>0.15062750634574201</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D59" s="11">
         <v>-0.55008322702512602</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E59" s="11">
         <v>-0.82141329285426601</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F59" s="11">
         <v>-0.73040250046099797</v>
       </c>
-      <c r="G59" s="12">
+      <c r="G59" s="11">
         <v>-0.466011204687237</v>
       </c>
-      <c r="H59" s="12">
+      <c r="H59" s="11">
         <v>-0.49934531581489</v>
       </c>
-      <c r="I59" s="14"/>
+      <c r="I59" s="13"/>
     </row>
     <row r="61" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C61" s="12">
+      <c r="C61" s="11">
         <v>0.120659024013012</v>
       </c>
-      <c r="D61" s="12">
+      <c r="D61" s="11">
         <v>0.497144356211418</v>
       </c>
-      <c r="E61" s="12">
+      <c r="E61" s="11">
         <v>0.85923738804323602</v>
       </c>
-      <c r="F61" s="12">
+      <c r="F61" s="11">
         <v>-6.2776448671610099E-2</v>
       </c>
-      <c r="G61" s="12">
+      <c r="G61" s="11">
         <v>-0.80163565249382096</v>
       </c>
-      <c r="H61" s="12">
+      <c r="H61" s="11">
         <v>-0.59450769393085801</v>
       </c>
-      <c r="I61" s="13">
+      <c r="I61" s="12">
         <v>-0.82748208559709024</v>
       </c>
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C62" s="12">
+      <c r="C62" s="11">
         <v>0.64314616344576503</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D62" s="11">
         <v>0.31559258921696898</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E62" s="11">
         <v>-0.69768497911043104</v>
       </c>
-      <c r="F62" s="12">
+      <c r="F62" s="11">
         <v>0.88905708149919105</v>
       </c>
-      <c r="G62" s="12">
+      <c r="G62" s="11">
         <v>0.44960607249162698</v>
       </c>
-      <c r="H62" s="12">
+      <c r="H62" s="11">
         <v>-8.6208383668845603E-2</v>
       </c>
-      <c r="I62" s="13">
+      <c r="I62" s="12">
         <v>-0.33870285934794392</v>
       </c>
     </row>
     <row r="63" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C63" s="12">
+      <c r="C63" s="11">
         <v>-0.28160755225246897</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D63" s="11">
         <v>-0.28188580723605</v>
       </c>
-      <c r="E63" s="12">
+      <c r="E63" s="11">
         <v>-0.91719004475258703</v>
       </c>
-      <c r="F63" s="12">
+      <c r="F63" s="11">
         <v>0.17717748178995199</v>
       </c>
-      <c r="G63" s="12">
+      <c r="G63" s="11">
         <v>0.61893973873448704</v>
       </c>
-      <c r="H63" s="12">
+      <c r="H63" s="11">
         <v>0.76519392297760502</v>
       </c>
-      <c r="I63" s="13">
+      <c r="I63" s="12">
         <v>0.40701088344766223</v>
       </c>
     </row>
     <row r="64" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C64" s="12">
+      <c r="C64" s="11">
         <v>0.55473366124148604</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D64" s="11">
         <v>-0.168644590698943</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E64" s="11">
         <v>0.81475736702014701</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F64" s="11">
         <v>-0.32222257508830499</v>
       </c>
-      <c r="G64" s="12">
+      <c r="G64" s="11">
         <v>-0.13174656678178401</v>
       </c>
-      <c r="H64" s="12">
+      <c r="H64" s="11">
         <v>-0.93745157434646997</v>
       </c>
-      <c r="I64" s="13">
+      <c r="I64" s="12">
         <v>0.18680447489439378</v>
       </c>
     </row>
     <row r="65" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C65" s="12">
+      <c r="C65" s="11">
         <v>0.52251596834331804</v>
       </c>
-      <c r="D65" s="12">
+      <c r="D65" s="11">
         <v>0.237752985926732</v>
       </c>
-      <c r="E65" s="12">
+      <c r="E65" s="11">
         <v>-0.81881046678041902</v>
       </c>
-      <c r="F65" s="12">
+      <c r="F65" s="11">
         <v>0.84686326973305603</v>
       </c>
-      <c r="G65" s="12">
+      <c r="G65" s="11">
         <v>0.52572104914795903</v>
       </c>
-      <c r="H65" s="12">
+      <c r="H65" s="11">
         <v>8.0249491336750398E-2</v>
       </c>
-      <c r="I65" s="14"/>
+      <c r="I65" s="13"/>
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C66" s="15"/>
+      <c r="C66" s="14"/>
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C67" s="12">
+      <c r="C67" s="11">
         <v>0.80795269318701202</v>
       </c>
-      <c r="D67" s="12">
+      <c r="D67" s="11">
         <v>-0.15339188512723601</v>
       </c>
-      <c r="E67" s="12">
+      <c r="E67" s="11">
         <v>-0.56893178426676705</v>
       </c>
-      <c r="F67" s="12">
+      <c r="F67" s="11">
         <v>0.89324884233208102</v>
       </c>
-      <c r="G67" s="12">
+      <c r="G67" s="11">
         <v>-0.16073235654289</v>
       </c>
-      <c r="H67" s="12">
+      <c r="H67" s="11">
         <v>0.41984713317178501</v>
       </c>
-      <c r="I67" s="13">
+      <c r="I67" s="12">
         <v>-0.88202590516263191</v>
       </c>
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C68" s="12">
+      <c r="C68" s="11">
         <v>0.62327172706413603</v>
       </c>
-      <c r="D68" s="12">
+      <c r="D68" s="11">
         <v>-0.21024697672166801</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E68" s="11">
         <v>-0.75321216335232399</v>
       </c>
-      <c r="F68" s="12">
+      <c r="F68" s="11">
         <v>0.85150059020542801</v>
       </c>
-      <c r="G68" s="12">
+      <c r="G68" s="11">
         <v>8.4240082772303798E-2</v>
       </c>
-      <c r="H68" s="12">
+      <c r="H68" s="11">
         <v>0.51754261016299297</v>
       </c>
-      <c r="I68" s="13">
+      <c r="I68" s="12">
         <v>0.34421989395175256</v>
       </c>
     </row>
     <row r="69" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C69" s="12">
+      <c r="C69" s="11">
         <v>0.183219127564729</v>
       </c>
-      <c r="D69" s="12">
+      <c r="D69" s="11">
         <v>0.30691965295595902</v>
       </c>
-      <c r="E69" s="12">
+      <c r="E69" s="11">
         <v>-0.93393312283257901</v>
       </c>
-      <c r="F69" s="12">
+      <c r="F69" s="11">
         <v>0.29641026281751898</v>
       </c>
-      <c r="G69" s="12">
+      <c r="G69" s="11">
         <v>0.168824467209755</v>
       </c>
-      <c r="H69" s="12">
+      <c r="H69" s="11">
         <v>0.940020880282875</v>
       </c>
-      <c r="I69" s="13">
+      <c r="I69" s="12">
         <v>7.8642604607971872E-2</v>
       </c>
     </row>
     <row r="70" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C70" s="12">
+      <c r="C70" s="11">
         <v>0.456018154538195</v>
       </c>
-      <c r="D70" s="12">
+      <c r="D70" s="11">
         <v>-0.72813473799361095</v>
       </c>
-      <c r="E70" s="12">
+      <c r="E70" s="11">
         <v>-0.51172966110882601</v>
       </c>
-      <c r="F70" s="12">
+      <c r="F70" s="11">
         <v>0.92963383286849699</v>
       </c>
-      <c r="G70" s="12">
+      <c r="G70" s="11">
         <v>0.36848456706329202</v>
       </c>
-      <c r="H70" s="12">
+      <c r="H70" s="11">
         <v>2.46216179001372E-4</v>
       </c>
-      <c r="I70" s="13">
+      <c r="I70" s="12">
         <v>0.31202292859717562</v>
       </c>
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C71" s="12">
+      <c r="C71" s="11">
         <v>0.65924111960036702</v>
       </c>
-      <c r="D71" s="12">
+      <c r="D71" s="11">
         <v>0.75191956809246496</v>
       </c>
-      <c r="E71" s="12">
+      <c r="E71" s="11">
         <v>4.25550792447618E-3</v>
       </c>
-      <c r="F71" s="12">
+      <c r="F71" s="11">
         <v>7.3678573297883201E-2</v>
       </c>
-      <c r="G71" s="12">
+      <c r="G71" s="11">
         <v>-0.86209322075632899</v>
       </c>
-      <c r="H71" s="12">
+      <c r="H71" s="11">
         <v>0.50136488365537502</v>
       </c>
-      <c r="I71" s="14"/>
+      <c r="I71" s="13"/>
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C72" s="15"/>
+      <c r="C72" s="14"/>
     </row>
     <row r="73" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C73" s="12">
+      <c r="C73" s="11">
         <v>0.81410819538472701</v>
       </c>
-      <c r="D73" s="12">
+      <c r="D73" s="11">
         <v>0.31591494502482198</v>
       </c>
-      <c r="E73" s="12">
+      <c r="E73" s="11">
         <v>0.48726337202521802</v>
       </c>
-      <c r="F73" s="12">
+      <c r="F73" s="11">
         <v>0.81038039018027097</v>
       </c>
-      <c r="G73" s="12">
+      <c r="G73" s="11">
         <v>0.38017224350034301</v>
       </c>
-      <c r="H73" s="12">
+      <c r="H73" s="11">
         <v>0.44581687774599499</v>
       </c>
-      <c r="I73" s="13">
+      <c r="I73" s="12">
         <v>6.3773915270780301E-2</v>
       </c>
     </row>
     <row r="74" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C74" s="12">
+      <c r="C74" s="11">
         <v>0.65483139321265404</v>
       </c>
-      <c r="D74" s="12">
+      <c r="D74" s="11">
         <v>0.60214841030826805</v>
       </c>
-      <c r="E74" s="12">
+      <c r="E74" s="11">
         <v>-0.456741872863</v>
       </c>
-      <c r="F74" s="12">
+      <c r="F74" s="11">
         <v>0.65340777160919195</v>
       </c>
-      <c r="G74" s="12">
+      <c r="G74" s="11">
         <v>0.54298079278297595</v>
       </c>
-      <c r="H74" s="12">
+      <c r="H74" s="11">
         <v>-0.52747525313466703</v>
       </c>
-      <c r="I74" s="13">
+      <c r="I74" s="12">
         <v>1.865399969453934E-3</v>
       </c>
     </row>
     <row r="75" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C75" s="12">
+      <c r="C75" s="11">
         <v>0.29887688337486301</v>
       </c>
-      <c r="D75" s="12">
+      <c r="D75" s="11">
         <v>0.46656271432792901</v>
       </c>
-      <c r="E75" s="12">
+      <c r="E75" s="11">
         <v>0.832461315727694</v>
       </c>
-      <c r="F75" s="12">
+      <c r="F75" s="11">
         <v>0.29293127381503398</v>
       </c>
-      <c r="G75" s="12">
+      <c r="G75" s="11">
         <v>0.57048070215566904</v>
       </c>
-      <c r="H75" s="12">
+      <c r="H75" s="11">
         <v>0.76729592550011405</v>
       </c>
-      <c r="I75" s="13">
+      <c r="I75" s="12">
         <v>-2.8439358428589529E-3</v>
       </c>
     </row>
     <row r="76" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C76" s="12">
+      <c r="C76" s="11">
         <v>-0.55019497205516599</v>
       </c>
-      <c r="D76" s="12">
+      <c r="D76" s="11">
         <v>-0.363119274603242</v>
       </c>
-      <c r="E76" s="12">
+      <c r="E76" s="11">
         <v>-0.75195071988583895</v>
       </c>
-      <c r="F76" s="12">
+      <c r="F76" s="11">
         <v>-0.54513506797440103</v>
       </c>
-      <c r="G76" s="12">
+      <c r="G76" s="11">
         <v>-0.45911957600453501</v>
       </c>
-      <c r="H76" s="12">
+      <c r="H76" s="11">
         <v>-0.70145347143909798</v>
       </c>
-      <c r="I76" s="13">
+      <c r="I76" s="12">
         <v>0.99795857631612694</v>
       </c>
     </row>
     <row r="77" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C77" s="12">
+      <c r="C77" s="11">
         <v>0.100920204108104</v>
       </c>
-      <c r="D77" s="12">
+      <c r="D77" s="11">
         <v>-0.92615454525436702</v>
       </c>
-      <c r="E77" s="12">
+      <c r="E77" s="11">
         <v>-0.36339079612375202</v>
       </c>
-      <c r="F77" s="12">
+      <c r="F77" s="11">
         <v>0.10743939206564899</v>
       </c>
-      <c r="G77" s="12">
+      <c r="G77" s="11">
         <v>-0.96426038639949196</v>
       </c>
-      <c r="H77" s="12">
+      <c r="H77" s="11">
         <v>-0.242195549614907</v>
       </c>
-      <c r="I77" s="14"/>
+      <c r="I77" s="13"/>
     </row>
     <row r="78" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C78" s="15"/>
+      <c r="C78" s="14"/>
     </row>
     <row r="79" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C79" s="12">
+      <c r="C79" s="11">
         <v>0.44479544792206699</v>
       </c>
-      <c r="D79" s="12">
+      <c r="D79" s="11">
         <v>-0.69475754295921499</v>
       </c>
-      <c r="E79" s="12">
+      <c r="E79" s="11">
         <v>0.56521585788889805</v>
       </c>
-      <c r="F79" s="12">
+      <c r="F79" s="11">
         <v>-0.71148103677256103</v>
       </c>
-      <c r="G79" s="12">
+      <c r="G79" s="11">
         <v>-0.20737572090685799</v>
       </c>
-      <c r="H79" s="12">
+      <c r="H79" s="11">
         <v>-0.67140899956092503</v>
       </c>
-      <c r="I79" s="13">
+      <c r="I79" s="12">
         <v>-0.30335570278436397</v>
       </c>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C80" s="12">
+      <c r="C80" s="11">
         <v>0.97694155906731905</v>
       </c>
-      <c r="D80" s="12">
+      <c r="D80" s="11">
         <v>0.112567390836213</v>
       </c>
-      <c r="E80" s="12">
+      <c r="E80" s="11">
         <v>-0.18142153314158699</v>
       </c>
-      <c r="F80" s="12">
+      <c r="F80" s="11">
         <v>-0.38025081802076199</v>
       </c>
-      <c r="G80" s="12">
+      <c r="G80" s="11">
         <v>-0.876363409576431</v>
       </c>
-      <c r="H80" s="12">
+      <c r="H80" s="11">
         <v>0.29562897312359898</v>
       </c>
-      <c r="I80" s="13">
+      <c r="I80" s="12">
         <v>0.68300091438391375</v>
       </c>
     </row>
     <row r="81" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C81" s="12">
+      <c r="C81" s="11">
         <v>0.59757754944054997</v>
       </c>
-      <c r="D81" s="12">
+      <c r="D81" s="11">
         <v>0.226242015369366</v>
       </c>
-      <c r="E81" s="12">
+      <c r="E81" s="11">
         <v>0.76923053949140296</v>
       </c>
-      <c r="F81" s="12">
+      <c r="F81" s="11">
         <v>-0.97208106954120799</v>
       </c>
-      <c r="G81" s="12">
+      <c r="G81" s="11">
         <v>-3.5976481267133598E-2</v>
       </c>
-      <c r="H81" s="12">
+      <c r="H81" s="11">
         <v>0.23187084127862301</v>
       </c>
-      <c r="I81" s="13">
+      <c r="I81" s="12">
         <v>0.5528315977355075</v>
       </c>
     </row>
     <row r="82" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C82" s="12">
+      <c r="C82" s="11">
         <v>-0.62385533135968196</v>
       </c>
-      <c r="D82" s="12">
+      <c r="D82" s="11">
         <v>-0.263212794046981</v>
       </c>
-      <c r="E82" s="12">
+      <c r="E82" s="11">
         <v>0.73588283753875094</v>
       </c>
-      <c r="F82" s="12">
+      <c r="F82" s="11">
         <v>-0.27602064424558298</v>
       </c>
-      <c r="G82" s="12">
+      <c r="G82" s="11">
         <v>0.85003198355033405</v>
       </c>
-      <c r="H82" s="12">
+      <c r="H82" s="11">
         <v>-0.44861813482263302</v>
       </c>
-      <c r="I82" s="13">
+      <c r="I82" s="12">
         <v>0.36859502585377973</v>
       </c>
     </row>
     <row r="83" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C83" s="12">
+      <c r="C83" s="11">
         <v>0.99018107575954695</v>
       </c>
-      <c r="D83" s="12">
+      <c r="D83" s="11">
         <v>-0.12543868753529899</v>
       </c>
-      <c r="E83" s="12">
+      <c r="E83" s="11">
         <v>-6.1697430068750697E-2</v>
       </c>
-      <c r="F83" s="12">
+      <c r="F83" s="11">
         <v>-0.48626538643800898</v>
       </c>
-      <c r="G83" s="12">
+      <c r="G83" s="11">
         <v>-0.87232844185609404</v>
       </c>
-      <c r="H83" s="12">
+      <c r="H83" s="11">
         <v>5.0882840734492001E-2</v>
       </c>
-      <c r="I83" s="14"/>
+      <c r="I83" s="13"/>
     </row>
     <row r="84" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C84" s="15"/>
+      <c r="C84" s="14"/>
     </row>
     <row r="85" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C85" s="12">
+      <c r="C85" s="11">
         <v>-0.55444238095838105</v>
       </c>
-      <c r="D85" s="12">
+      <c r="D85" s="11">
         <v>-0.54049372013367303</v>
       </c>
-      <c r="E85" s="12">
+      <c r="E85" s="11">
         <v>-0.63281923540080798</v>
       </c>
-      <c r="F85" s="12">
+      <c r="F85" s="11">
         <v>0.90602427230106497</v>
       </c>
-      <c r="G85" s="12">
+      <c r="G85" s="11">
         <v>0.281816852189408</v>
       </c>
-      <c r="H85" s="12">
+      <c r="H85" s="11">
         <v>-0.31575192766375698</v>
       </c>
-      <c r="I85" s="13">
+      <c r="I85" s="12">
         <v>0.18651244814104911</v>
       </c>
     </row>
     <row r="86" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C86" s="12">
+      <c r="C86" s="11">
         <v>-0.31093035378142903</v>
       </c>
-      <c r="D86" s="12">
+      <c r="D86" s="11">
         <v>-0.950419660976215</v>
       </c>
-      <c r="E86" s="12">
+      <c r="E86" s="11">
         <v>-4.9782654822069098E-3</v>
       </c>
-      <c r="F86" s="12">
+      <c r="F86" s="11">
         <v>0.61174001075659801</v>
       </c>
-      <c r="G86" s="12">
+      <c r="G86" s="11">
         <v>0.75246212706851201</v>
       </c>
-      <c r="H86" s="12">
+      <c r="H86" s="11">
         <v>0.24407971355081601</v>
       </c>
-      <c r="I86" s="13">
+      <c r="I86" s="12">
         <v>3.9621747830103166E-2</v>
       </c>
     </row>
     <row r="87" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C87" s="12">
+      <c r="C87" s="11">
         <v>0.19515336239929501</v>
       </c>
-      <c r="D87" s="12">
+      <c r="D87" s="11">
         <v>0.664553570675111</v>
       </c>
-      <c r="E87" s="12">
+      <c r="E87" s="11">
         <v>0.72130695050526805</v>
       </c>
-      <c r="F87" s="12">
+      <c r="F87" s="11">
         <v>-0.67745692944544</v>
       </c>
-      <c r="G87" s="12">
+      <c r="G87" s="11">
         <v>-0.53706718102392104</v>
       </c>
-      <c r="H87" s="12">
+      <c r="H87" s="11">
         <v>0.50260417011140601</v>
       </c>
-      <c r="I87" s="13">
+      <c r="I87" s="12">
         <v>-0.96186704091018704</v>
       </c>
     </row>
     <row r="88" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C88" s="12">
+      <c r="C88" s="11">
         <v>9.7322213450918696E-2</v>
       </c>
-      <c r="D88" s="12">
+      <c r="D88" s="11">
         <v>-0.89519355282858004</v>
       </c>
-      <c r="E88" s="12">
+      <c r="E88" s="11">
         <v>0.43492170530241298</v>
       </c>
-      <c r="F88" s="12">
+      <c r="F88" s="11">
         <v>7.8600257969964796E-2</v>
       </c>
-      <c r="G88" s="12">
+      <c r="G88" s="11">
         <v>0.86035009951505603</v>
       </c>
-      <c r="H88" s="12">
+      <c r="H88" s="11">
         <v>0.50360669744502895</v>
       </c>
-      <c r="I88" s="13">
+      <c r="I88" s="12">
         <v>0.1960995140177573</v>
       </c>
     </row>
     <row r="89" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C89" s="12">
+      <c r="C89" s="11">
         <v>0.53564483919795502</v>
       </c>
-      <c r="D89" s="12">
+      <c r="D89" s="11">
         <v>-0.64080285990783903</v>
       </c>
-      <c r="E89" s="12">
+      <c r="E89" s="11">
         <v>0.54996027217839205</v>
       </c>
-      <c r="F89" s="12">
+      <c r="F89" s="11">
         <v>-0.43078604640668999</v>
       </c>
-      <c r="G89" s="12">
+      <c r="G89" s="11">
         <v>0.79780261301442901</v>
       </c>
-      <c r="H89" s="12">
+      <c r="H89" s="11">
         <v>0.42182267943846102</v>
       </c>
-      <c r="I89" s="14"/>
+      <c r="I89" s="13"/>
     </row>
     <row r="90" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C90" s="15"/>
+      <c r="C90" s="14"/>
     </row>
     <row r="91" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C91" s="12">
+      <c r="C91" s="11">
         <v>0.79477222011966597</v>
       </c>
-      <c r="D91" s="12">
+      <c r="D91" s="11">
         <v>-0.50227319899293499</v>
       </c>
-      <c r="E91" s="12">
+      <c r="E91" s="11">
         <v>0.34067396686488999</v>
       </c>
-      <c r="F91" s="12">
+      <c r="F91" s="11">
         <v>7.2867957715677001E-2</v>
       </c>
-      <c r="G91" s="12">
+      <c r="G91" s="11">
         <v>0.68186645664318302</v>
       </c>
-      <c r="H91" s="12">
+      <c r="H91" s="11">
         <v>0.72783816610783503</v>
       </c>
-      <c r="I91" s="13">
+      <c r="I91" s="12">
         <v>0.57846160722630036</v>
       </c>
     </row>
     <row r="92" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C92" s="12">
+      <c r="C92" s="11">
         <v>0.78119835022224704</v>
       </c>
-      <c r="D92" s="12">
+      <c r="D92" s="11">
         <v>-0.61096555065495095</v>
       </c>
-      <c r="E92" s="12">
+      <c r="E92" s="11">
         <v>-0.12825846374774499</v>
       </c>
-      <c r="F92" s="12">
+      <c r="F92" s="11">
         <v>0.41488981276415898</v>
       </c>
-      <c r="G92" s="12">
+      <c r="G92" s="11">
         <v>0.36040576367778498</v>
       </c>
-      <c r="H92" s="12">
+      <c r="H92" s="11">
         <v>0.83544845967441606</v>
       </c>
-      <c r="I92" s="13">
+      <c r="I92" s="12">
         <v>0.41877763278554686</v>
       </c>
     </row>
     <row r="93" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C93" s="12">
+      <c r="C93" s="11">
         <v>-0.620231573997299</v>
       </c>
-      <c r="D93" s="12">
+      <c r="D93" s="11">
         <v>-0.340071787272127</v>
       </c>
-      <c r="E93" s="12">
+      <c r="E93" s="11">
         <v>0.70686913507266302</v>
       </c>
-      <c r="F93" s="12">
+      <c r="F93" s="11">
         <v>-0.98668274497498998</v>
       </c>
-      <c r="G93" s="12">
+      <c r="G93" s="11">
         <v>-0.124963233998514</v>
       </c>
-      <c r="H93" s="12">
+      <c r="H93" s="11">
         <v>0.10412180807713101</v>
       </c>
-      <c r="I93" s="13">
+      <c r="I93" s="12">
         <v>-0.20223280492917325</v>
       </c>
     </row>
     <row r="94" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C94" s="12">
+      <c r="C94" s="11">
         <v>0.82354077054491803</v>
       </c>
-      <c r="D94" s="12">
+      <c r="D94" s="11">
         <v>-1.82324184210764E-2</v>
       </c>
-      <c r="E94" s="12">
+      <c r="E94" s="11">
         <v>0.56696400076971398</v>
       </c>
-      <c r="F94" s="12">
+      <c r="F94" s="11">
         <v>1.2546128057939599E-2</v>
       </c>
-      <c r="G94" s="12">
+      <c r="G94" s="11">
         <v>0.96123098346818303</v>
       </c>
-      <c r="H94" s="12">
+      <c r="H94" s="11">
         <v>0.27545887368451999</v>
       </c>
-      <c r="I94" s="13">
+      <c r="I94" s="12">
         <v>0.67015621750020193</v>
       </c>
     </row>
     <row r="95" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C95" s="12">
+      <c r="C95" s="11">
         <v>-9.6810840162620093E-2</v>
       </c>
-      <c r="D95" s="12">
+      <c r="D95" s="11">
         <v>0.99313052830274196</v>
       </c>
-      <c r="E95" s="12">
+      <c r="E95" s="11">
         <v>-6.5722256352957503E-2</v>
       </c>
-      <c r="F95" s="12">
+      <c r="F95" s="11">
         <v>0.20930280526914299</v>
       </c>
-      <c r="G95" s="12">
+      <c r="G95" s="11">
         <v>0.134288917021397</v>
       </c>
-      <c r="H95" s="12">
+      <c r="H95" s="11">
         <v>-0.96858599126339195</v>
       </c>
-      <c r="I95" s="14"/>
+      <c r="I95" s="13"/>
     </row>
     <row r="96" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C96" s="15"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="15"/>
-      <c r="H96" s="15"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="14"/>
     </row>
     <row r="97" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C97" s="12">
+      <c r="C97" s="11">
         <v>0.48945127018457601</v>
       </c>
-      <c r="D97" s="12">
+      <c r="D97" s="11">
         <v>0.16276583567825001</v>
       </c>
-      <c r="E97" s="12">
+      <c r="E97" s="11">
         <v>-0.85670574694621104</v>
       </c>
-      <c r="F97" s="12">
+      <c r="F97" s="11">
         <v>9.4799060412133901E-2</v>
       </c>
-      <c r="G97" s="12">
+      <c r="G97" s="11">
         <v>-0.42568846780689501</v>
       </c>
-      <c r="H97" s="12">
+      <c r="H97" s="11">
         <v>-0.89989025248704402</v>
       </c>
-      <c r="I97" s="13">
+      <c r="I97" s="12">
         <v>0.41367443995030023</v>
       </c>
     </row>
     <row r="98" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C98" s="12">
+      <c r="C98" s="11">
         <v>-0.367373852915927</v>
       </c>
-      <c r="D98" s="12">
+      <c r="D98" s="11">
         <v>0.65642995868342402</v>
       </c>
-      <c r="E98" s="12">
+      <c r="E98" s="11">
         <v>0.65889009822320499</v>
       </c>
-      <c r="F98" s="12">
+      <c r="F98" s="11">
         <v>-0.81395063820073699</v>
       </c>
-      <c r="G98" s="12">
+      <c r="G98" s="11">
         <v>0.110536444237137</v>
       </c>
-      <c r="H98" s="12">
+      <c r="H98" s="11">
         <v>0.57032100879068404</v>
       </c>
-      <c r="I98" s="13">
+      <c r="I98" s="12">
         <v>-0.22707448252613296</v>
       </c>
     </row>
     <row r="99" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C99" s="12">
+      <c r="C99" s="11">
         <v>0.26770656823497502</v>
       </c>
-      <c r="D99" s="12">
+      <c r="D99" s="11">
         <v>-0.88151032227445003</v>
       </c>
-      <c r="E99" s="12">
+      <c r="E99" s="11">
         <v>-0.388937970693848</v>
       </c>
-      <c r="F99" s="12">
+      <c r="F99" s="11">
         <v>0.94630660359262497</v>
       </c>
-      <c r="G99" s="12">
+      <c r="G99" s="11">
         <v>0.104170852131328</v>
       </c>
-      <c r="H99" s="12">
+      <c r="H99" s="11">
         <v>-0.30602654388667799</v>
       </c>
-      <c r="I99" s="13">
+      <c r="I99" s="12">
         <v>-0.68623167100009941</v>
       </c>
     </row>
     <row r="100" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C100" s="12">
+      <c r="C100" s="11">
         <v>0.51664238130666196</v>
       </c>
-      <c r="D100" s="12">
+      <c r="D100" s="11">
         <v>-0.61606837605798803</v>
       </c>
-      <c r="E100" s="12">
+      <c r="E100" s="11">
         <v>0.59459263858464895</v>
       </c>
-      <c r="F100" s="12">
+      <c r="F100" s="11">
         <v>0.37243395314440902</v>
       </c>
-      <c r="G100" s="12">
+      <c r="G100" s="11">
         <v>0.92805286901083806</v>
       </c>
-      <c r="H100" s="12">
+      <c r="H100" s="11">
         <v>-3.2898124537926801E-3</v>
       </c>
-      <c r="I100" s="13">
+      <c r="I100" s="12">
         <v>0.55353114712155604</v>
       </c>
     </row>
     <row r="101" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C101" s="12">
+      <c r="C101" s="11">
         <v>-0.19949809717148101</v>
       </c>
-      <c r="D101" s="12">
+      <c r="D101" s="11">
         <v>0.34291868135659598</v>
       </c>
-      <c r="E101" s="12">
+      <c r="E101" s="11">
         <v>-0.91793642873655001</v>
       </c>
-      <c r="F101" s="12">
+      <c r="F101" s="11">
         <v>-2.5566510991734001E-2</v>
       </c>
-      <c r="G101" s="12">
+      <c r="G101" s="11">
         <v>-0.91795336127724503</v>
       </c>
-      <c r="H101" s="12">
+      <c r="H101" s="11">
         <v>-0.39586358766059498</v>
       </c>
-      <c r="I101" s="14"/>
-    </row>
-    <row r="102" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C102" s="15"/>
-      <c r="D102" s="15"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="15"/>
-      <c r="H102" s="15"/>
+      <c r="I101" s="13"/>
+    </row>
+    <row r="102" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="14"/>
     </row>
     <row r="103" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C103" s="17">
+      <c r="C103" s="18">
         <v>-0.78964769616561803</v>
       </c>
-      <c r="D103" s="17">
+      <c r="D103" s="18">
         <v>0.59903385418034905</v>
       </c>
-      <c r="E103" s="17">
+      <c r="E103" s="18">
         <v>-0.132721352789096</v>
       </c>
-      <c r="F103" s="12">
+      <c r="F103" s="19">
         <v>-0.90557248670600998</v>
       </c>
-      <c r="G103" s="12">
+      <c r="G103" s="19">
         <v>0.41039267124817003</v>
       </c>
-      <c r="H103" s="12">
+      <c r="H103" s="19">
         <v>-0.107314149611708</v>
       </c>
-      <c r="I103" s="3">
+      <c r="I103" s="20">
         <v>-6.4996872653581464E-2</v>
       </c>
     </row>
     <row r="104" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C104" s="12">
+      <c r="C104" s="19">
         <v>0.14148841173899299</v>
       </c>
-      <c r="D104" s="12">
+      <c r="D104" s="19">
         <v>-0.97105298141183405</v>
       </c>
-      <c r="E104" s="12">
+      <c r="E104" s="19">
         <v>-0.19245034849218701</v>
       </c>
-      <c r="F104" s="12">
+      <c r="F104" s="19">
         <v>0.37611046744750698</v>
       </c>
-      <c r="G104" s="12">
+      <c r="G104" s="19">
         <v>-0.87624924527963899</v>
       </c>
-      <c r="H104" s="12">
+      <c r="H104" s="19">
         <v>-0.30121118243398698</v>
       </c>
-      <c r="I104" s="7">
+      <c r="I104" s="20">
         <v>2.3858602032224313E-2</v>
       </c>
     </row>
     <row r="105" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C105" s="12">
+      <c r="C105" s="19">
         <v>-0.63979246759036501</v>
       </c>
-      <c r="D105" s="12">
+      <c r="D105" s="19">
         <v>0.50016921919483603</v>
       </c>
-      <c r="E105" s="12">
+      <c r="E105" s="19">
         <v>0.58352065137804698</v>
       </c>
-      <c r="F105" s="12">
+      <c r="F105" s="19">
         <v>-0.75920052662587201</v>
       </c>
-      <c r="G105" s="12">
+      <c r="G105" s="19">
         <v>0.25386897565160299</v>
       </c>
-      <c r="H105" s="12">
+      <c r="H105" s="19">
         <v>0.59930384912213297</v>
       </c>
-      <c r="I105" s="7">
+      <c r="I105" s="20">
         <v>-0.11941628980163718</v>
       </c>
     </row>
-    <row r="106" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C106" s="12">
+    <row r="106" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C106" s="19">
         <v>-0.72744639937446098</v>
       </c>
-      <c r="D106" s="12">
+      <c r="D106" s="19">
         <v>-0.62820993581450502</v>
       </c>
-      <c r="E106" s="12">
+      <c r="E106" s="19">
         <v>0.27599639957990002</v>
       </c>
-      <c r="F106" s="12">
+      <c r="F106" s="19">
         <v>-0.56408131053370703</v>
       </c>
-      <c r="G106" s="12">
+      <c r="G106" s="19">
         <v>-0.81191082855001595</v>
       </c>
-      <c r="H106" s="12">
+      <c r="H106" s="19">
         <v>0.15037646620998299</v>
       </c>
-      <c r="I106" s="9">
+      <c r="I106" s="20">
         <v>0.99042714188593084</v>
       </c>
     </row>
-    <row r="107" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C107" s="12">
+    <row r="107" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C107" s="19">
         <v>0.55212933566026101</v>
       </c>
-      <c r="D107" s="12">
+      <c r="D107" s="19">
         <v>-0.70200676877097301</v>
       </c>
-      <c r="E107" s="12">
+      <c r="E107" s="19">
         <v>-0.44982184618256998</v>
       </c>
-      <c r="F107" s="12">
+      <c r="F107" s="19">
         <v>0.71826410005476304</v>
       </c>
-      <c r="G107" s="12">
+      <c r="G107" s="19">
         <v>-0.48668463256091599</v>
       </c>
-      <c r="H107" s="12">
+      <c r="H107" s="19">
         <v>-0.497227061815391</v>
       </c>
-      <c r="I107" s="11"/>
+      <c r="I107" s="21"/>
     </row>
     <row r="108" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="15"/>
-      <c r="G108" s="15"/>
-      <c r="H108" s="15"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c r="G108" s="14"/>
+      <c r="H108" s="14"/>
     </row>
     <row r="109" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C109" s="12">
+      <c r="C109" s="11">
         <v>-9.2043875290860805E-2</v>
       </c>
-      <c r="D109" s="12">
+      <c r="D109" s="11">
         <v>-0.765368993095627</v>
       </c>
-      <c r="E109" s="12">
+      <c r="E109" s="11">
         <v>0.63697584681777897</v>
       </c>
-      <c r="F109" s="12">
+      <c r="F109" s="11">
         <v>-0.73679868388692704</v>
       </c>
-      <c r="G109" s="12">
+      <c r="G109" s="11">
         <v>-0.44786095692593902</v>
       </c>
-      <c r="H109" s="12">
+      <c r="H109" s="11">
         <v>0.50650593548731004</v>
       </c>
-      <c r="I109" s="13">
+      <c r="I109" s="12">
         <v>7.8248894438885261E-2</v>
       </c>
     </row>
     <row r="110" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C110" s="12">
+      <c r="C110" s="11">
         <v>0.47301303803384398</v>
       </c>
-      <c r="D110" s="12">
+      <c r="D110" s="11">
         <v>-0.55804450837071795</v>
       </c>
-      <c r="E110" s="12">
+      <c r="E110" s="11">
         <v>0.68179541838243296</v>
       </c>
-      <c r="F110" s="12">
+      <c r="F110" s="11">
         <v>-0.234124989704355</v>
       </c>
-      <c r="G110" s="12">
+      <c r="G110" s="11">
         <v>-0.49394536512462101</v>
       </c>
-      <c r="H110" s="12">
+      <c r="H110" s="11">
         <v>0.837378925856055</v>
       </c>
-      <c r="I110" s="13">
+      <c r="I110" s="12">
         <v>0.26087485665887911</v>
       </c>
     </row>
     <row r="111" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C111" s="12">
+      <c r="C111" s="11">
         <v>-4.8971946299231899E-2</v>
       </c>
-      <c r="D111" s="12">
+      <c r="D111" s="11">
         <v>-0.99076218229176605</v>
       </c>
-      <c r="E111" s="12">
+      <c r="E111" s="11">
         <v>0.12645966398865299</v>
       </c>
-      <c r="F111" s="12">
+      <c r="F111" s="11">
         <v>-0.59030299946982001</v>
       </c>
-      <c r="G111" s="12">
+      <c r="G111" s="11">
         <v>-0.80122274549991901</v>
       </c>
-      <c r="H111" s="12">
+      <c r="H111" s="11">
         <v>9.7900362157174597E-2</v>
       </c>
-      <c r="I111" s="13">
+      <c r="I111" s="12">
         <v>0.2481684254770474</v>
       </c>
     </row>
     <row r="112" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C112" s="12">
+      <c r="C112" s="11">
         <v>0.84395421747975297</v>
       </c>
-      <c r="D112" s="12">
+      <c r="D112" s="11">
         <v>-0.18539687896554599</v>
       </c>
-      <c r="E112" s="12">
+      <c r="E112" s="11">
         <v>0.50335799990461305</v>
       </c>
-      <c r="F112" s="12">
+      <c r="F112" s="11">
         <v>0.30741459224801498</v>
       </c>
-      <c r="G112" s="12">
+      <c r="G112" s="11">
         <v>-0.376840552465326</v>
       </c>
-      <c r="H112" s="12">
+      <c r="H112" s="11">
         <v>0.87377769855416598</v>
       </c>
-      <c r="I112" s="13">
+      <c r="I112" s="12">
         <v>0.92964178707636891</v>
       </c>
     </row>
     <row r="113" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C113" s="12">
+      <c r="C113" s="11">
         <v>0.136598922909072</v>
       </c>
-      <c r="D113" s="12">
+      <c r="D113" s="11">
         <v>0.105920714227372</v>
       </c>
-      <c r="E113" s="12">
+      <c r="E113" s="11">
         <v>0.98494747908588698</v>
       </c>
-      <c r="F113" s="12">
+      <c r="F113" s="11">
         <v>-0.28510757735370901</v>
       </c>
-      <c r="G113" s="12">
+      <c r="G113" s="11">
         <v>0.30495452799395301</v>
       </c>
-      <c r="H113" s="12">
+      <c r="H113" s="11">
         <v>0.90868938873054095</v>
       </c>
-      <c r="I113" s="14"/>
+      <c r="I113" s="13"/>
     </row>
     <row r="114" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C114" s="15"/>
-      <c r="D114" s="15"/>
-      <c r="E114" s="15"/>
-      <c r="F114" s="15"/>
-      <c r="G114" s="15"/>
-      <c r="H114" s="15"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c r="G114" s="14"/>
+      <c r="H114" s="14"/>
     </row>
     <row r="115" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C115" s="12">
+      <c r="C115" s="11">
         <v>-0.82225186031413</v>
       </c>
-      <c r="D115" s="12">
+      <c r="D115" s="11">
         <v>-0.19266063048430601</v>
       </c>
-      <c r="E115" s="12">
+      <c r="E115" s="11">
         <v>0.53552195069048503</v>
       </c>
-      <c r="F115" s="12">
+      <c r="F115" s="11">
         <v>-0.82124793099839</v>
       </c>
-      <c r="G115" s="12">
+      <c r="G115" s="11">
         <v>-0.13064801039884</v>
       </c>
-      <c r="H115" s="12">
+      <c r="H115" s="11">
         <v>0.55541239922213503</v>
       </c>
-      <c r="I115" s="13">
+      <c r="I115" s="12">
         <v>-0.30743296146062016</v>
       </c>
     </row>
     <row r="116" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C116" s="12">
+      <c r="C116" s="11">
         <v>0.63682143129189706</v>
       </c>
-      <c r="D116" s="12">
+      <c r="D116" s="11">
         <v>0.76283037455301295</v>
       </c>
-      <c r="E116" s="12">
+      <c r="E116" s="11">
         <v>-0.112019124736129</v>
       </c>
-      <c r="F116" s="12">
+      <c r="F116" s="11">
         <v>0.927474543469896</v>
       </c>
-      <c r="G116" s="12">
+      <c r="G116" s="11">
         <v>0.34758178163812198</v>
       </c>
-      <c r="H116" s="12">
+      <c r="H116" s="11">
         <v>0.137760213010057</v>
       </c>
-      <c r="I116" s="13">
+      <c r="I116" s="12">
         <v>-7.1592451345547189E-2</v>
       </c>
     </row>
     <row r="117" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C117" s="12">
+      <c r="C117" s="11">
         <v>0.58514651857146005</v>
       </c>
-      <c r="D117" s="12">
+      <c r="D117" s="11">
         <v>0.46485861352674701</v>
       </c>
-      <c r="E117" s="12">
+      <c r="E117" s="11">
         <v>-0.66446220451857896</v>
       </c>
-      <c r="F117" s="12">
+      <c r="F117" s="11">
         <v>0.74689886393271998</v>
       </c>
-      <c r="G117" s="12">
+      <c r="G117" s="11">
         <v>0.49110773824098197</v>
       </c>
-      <c r="H117" s="12">
+      <c r="H117" s="11">
         <v>-0.44828035479578898</v>
       </c>
-      <c r="I117" s="13">
+      <c r="I117" s="12">
         <v>0.23872143664121803</v>
       </c>
     </row>
     <row r="118" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C118" s="12">
+      <c r="C118" s="11">
         <v>-0.66396364215876202</v>
       </c>
-      <c r="D118" s="12">
+      <c r="D118" s="11">
         <v>0.13626227147480999</v>
       </c>
-      <c r="E118" s="12">
+      <c r="E118" s="11">
         <v>0.73524477234714003</v>
       </c>
-      <c r="F118" s="12">
+      <c r="F118" s="11">
         <v>-0.52697765806736097</v>
       </c>
-      <c r="G118" s="12">
+      <c r="G118" s="11">
         <v>-8.3429100441283793E-2</v>
       </c>
-      <c r="H118" s="12">
+      <c r="H118" s="11">
         <v>0.84577428022930001</v>
       </c>
-      <c r="I118" s="13">
+      <c r="I118" s="12">
         <v>0.91835263967924718</v>
       </c>
     </row>
     <row r="119" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C119" s="12">
+      <c r="C119" s="11">
         <v>0.79951614675163496</v>
       </c>
-      <c r="D119" s="12">
+      <c r="D119" s="11">
         <v>-4.7771755842411202E-2</v>
       </c>
-      <c r="E119" s="12">
+      <c r="E119" s="11">
         <v>0.59874183954952598</v>
       </c>
-      <c r="F119" s="12">
+      <c r="F119" s="11">
         <v>0.66799262771921297</v>
       </c>
-      <c r="G119" s="12">
+      <c r="G119" s="11">
         <v>-0.70721229803044705</v>
       </c>
-      <c r="H119" s="12">
+      <c r="H119" s="11">
         <v>0.23159580053894599</v>
       </c>
-      <c r="I119" s="14"/>
+      <c r="I119" s="13"/>
     </row>
     <row r="120" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C120" s="15"/>
-      <c r="D120" s="15"/>
-      <c r="E120" s="15"/>
-      <c r="F120" s="15"/>
-      <c r="G120" s="15"/>
-      <c r="H120" s="15"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c r="G120" s="14"/>
+      <c r="H120" s="14"/>
     </row>
     <row r="121" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C121" s="16">
+      <c r="C121" s="15">
         <v>-0.122211934700673</v>
       </c>
-      <c r="D121" s="16">
+      <c r="D121" s="15">
         <v>-0.98494785956892705</v>
       </c>
-      <c r="E121" s="16">
+      <c r="E121" s="15">
         <v>0.122237297693085</v>
       </c>
-      <c r="F121" s="16">
+      <c r="F121" s="15">
         <v>0.37114891190344701</v>
       </c>
-      <c r="G121" s="16">
+      <c r="G121" s="15">
         <v>-0.90592166925288897</v>
       </c>
-      <c r="H121" s="16">
+      <c r="H121" s="15">
         <v>0.203848998945166</v>
       </c>
-      <c r="I121" s="13">
+      <c r="I121" s="12">
         <v>4.1895292141403565E-3</v>
       </c>
     </row>
     <row r="122" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C122" s="16">
+      <c r="C122" s="15">
         <v>0.54416040785388797</v>
       </c>
-      <c r="D122" s="16">
+      <c r="D122" s="15">
         <v>-0.4617874232543</v>
       </c>
-      <c r="E122" s="16">
+      <c r="E122" s="15">
         <v>0.70045829729430997</v>
       </c>
-      <c r="F122" s="16">
+      <c r="F122" s="15">
         <v>0.26901890279646301</v>
       </c>
-      <c r="G122" s="16">
+      <c r="G122" s="15">
         <v>-0.20100975844593</v>
       </c>
-      <c r="H122" s="16">
+      <c r="H122" s="15">
         <v>0.94192563769529902</v>
       </c>
-      <c r="I122" s="13">
+      <c r="I122" s="12">
         <v>0.26959287852966413</v>
       </c>
     </row>
     <row r="123" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C123" s="16">
+      <c r="C123" s="15">
         <v>-8.4970838517027802E-3</v>
       </c>
-      <c r="D123" s="16">
+      <c r="D123" s="15">
         <v>0.72285129846312302</v>
       </c>
-      <c r="E123" s="16">
+      <c r="E123" s="15">
         <v>0.69095137301853204</v>
       </c>
-      <c r="F123" s="16">
+      <c r="F123" s="15">
         <v>-0.72906232938137105</v>
       </c>
-      <c r="G123" s="16">
+      <c r="G123" s="15">
         <v>0.49839841098473903</v>
       </c>
-      <c r="H123" s="16">
+      <c r="H123" s="15">
         <v>0.46911314605849103</v>
       </c>
-      <c r="I123" s="13">
+      <c r="I123" s="12">
         <v>-0.28637863747385861</v>
       </c>
     </row>
     <row r="124" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C124" s="16">
+      <c r="C124" s="15">
         <v>-0.71798039488542498</v>
       </c>
-      <c r="D124" s="16">
+      <c r="D124" s="15">
         <v>0.68085573411851696</v>
       </c>
-      <c r="E124" s="16">
+      <c r="E124" s="15">
         <v>-0.14470529319310799</v>
       </c>
-      <c r="F124" s="16">
+      <c r="F124" s="15">
         <v>-0.78076034129501004</v>
       </c>
-      <c r="G124" s="16">
+      <c r="G124" s="15">
         <v>0.21067974098897399</v>
       </c>
-      <c r="H124" s="16">
+      <c r="H124" s="15">
         <v>-0.58824088280033604</v>
       </c>
-      <c r="I124" s="13">
+      <c r="I124" s="12">
         <v>0.91939621692155649</v>
       </c>
     </row>
     <row r="125" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C125" s="16">
+      <c r="C125" s="15">
         <v>-0.933629961259693</v>
       </c>
-      <c r="D125" s="16">
+      <c r="D125" s="15">
         <v>-0.231941838490729</v>
       </c>
-      <c r="E125" s="16">
+      <c r="E125" s="15">
         <v>0.27301662769099699</v>
       </c>
-      <c r="F125" s="16">
+      <c r="F125" s="15">
         <v>-0.65915971426818598</v>
       </c>
-      <c r="G125" s="16">
+      <c r="G125" s="15">
         <v>-0.727692972861812</v>
       </c>
-      <c r="H125" s="16">
+      <c r="H125" s="15">
         <v>-0.18966129898695999</v>
       </c>
-      <c r="I125" s="14"/>
+      <c r="I125" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
